--- a/data/impacts/impacts_recipe_3.xlsx
+++ b/data/impacts/impacts_recipe_3.xlsx
@@ -440,12 +440,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.0448588</v>
+        <v>2.9939</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0248414</v>
+        <v>0.89425</v>
       </c>
     </row>
     <row r="4">
@@ -455,7 +455,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.1967898</v>
+        <v>1.1513</v>
       </c>
     </row>
     <row r="6">
@@ -465,47 +465,47 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.3508922</v>
+        <v>1.01636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.233216</v>
+        <v>0.2132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2378532</v>
+        <v>0.14478</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1841986</v>
+        <v>0.11326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1189896</v>
+        <v>0.093135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.038663808</v>
+        <v>0.03401145000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.022643724</v>
+        <v>0.01939835</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>695.4222</v>
+        <v>575.3099999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19597.0794</v>
+        <v>12671.74</v>
       </c>
     </row>
   </sheetData>
